--- a/finalsubmissiondata/Cluster_Analysis_Kmeans.xlsx
+++ b/finalsubmissiondata/Cluster_Analysis_Kmeans.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18075" windowHeight="12525" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18075" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="kmeans5_3Feature_Final" sheetId="10" r:id="rId1"/>
     <sheet name="Cluster_Membership" sheetId="12" r:id="rId2"/>
     <sheet name="k3_3FeatureDetail_final" sheetId="11" r:id="rId3"/>
+    <sheet name="Agglomeration Schedule" sheetId="13" r:id="rId4"/>
+    <sheet name="Dendrogram" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="292">
   <si>
     <t>Valid</t>
   </si>
@@ -873,6 +875,30 @@
   </si>
   <si>
     <t>Cluster Centroid % of Total</t>
+  </si>
+  <si>
+    <t>Agglomeration Schedule</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Cluster Combined</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>Stage Cluster First Appears</t>
+  </si>
+  <si>
+    <t>Next Stage</t>
+  </si>
+  <si>
+    <t>Cluster 1</t>
+  </si>
+  <si>
+    <t>Cluster 2</t>
   </si>
 </sst>
 </file>
@@ -1414,6 +1440,3119 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cluster Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3206036745406826E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.86486351706036746"/>
+          <c:h val="0.60250765529308836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Agglomeration Schedule'!$D$4:$D$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="172"/>
+                <c:pt idx="0">
+                  <c:v>1.0860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.768999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.780999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.203000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.621000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.055</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.591999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.135000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.956999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.896000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88.227999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.840999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101.494</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>108.283</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>115.07299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>122.261</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>129.68199999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>137.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145.208</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>153.09</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>161.43199999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>169.78200000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>178.46799999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>187.22499999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>196.00899999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>204.857</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>213.92400000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>223.13800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>232.45099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>241.86600000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>251.33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>260.81200000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>270.94200000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>281.15300000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>291.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>301.983</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>312.51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>323.03800000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>333.64</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>344.416</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>355.90499999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>367.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>379.14100000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>391.11</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>403.46899999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>416.02600000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>428.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>441.62200000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>454.69400000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>467.952</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>481.31700000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>494.73399999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>508.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>522.59</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>536.98500000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>551.40099999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>566.34500000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>581.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>596.97</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>612.75800000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>628.62400000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>644.91200000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>661.50199999999995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>678.17600000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>695.149</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>712.97900000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>731.149</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>749.46299999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>767.95699999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>786.96799999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>806.45500000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>826.03</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>845.976</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>866.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>886.84699999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>907.34</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>928.72</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>950.11800000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>972.54100000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>995.15</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1018.289</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1041.4570000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1064.876</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1088.4490000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1113.3140000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1138.193</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1164.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1190.0840000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1216.0920000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1242.444</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1269.0709999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1295.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1322.7829999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1351.886</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1381.5350000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1411.597</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1442.4290000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1473.412</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1504.7809999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1536.9880000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1569.546</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1603.7860000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1638.0630000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1673.4590000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1709.893</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1748.652</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1787.422</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1826.8119999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1866.56</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1906.492</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1946.578</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1987.058</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2028.829</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2071.0169999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2113.9380000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2158.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2205.3359999999998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2252.752</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2301.038</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2349.3890000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2401.6529999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2457.1970000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2513.402</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2570.4569999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2627.8339999999998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2688.232</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2749.0659999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2813.3240000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2878.0259999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2945.9340000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3014.192</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3084.9470000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3156.4450000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3236.2240000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3317.0610000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3401.4960000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3487.6329999999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3574.0909999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3662.442</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3757.5940000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3853.2170000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3949.5390000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4064.63</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4184.0550000000003</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4305.2060000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4430.1570000000002</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4556.2139999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4694.75</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4858.4430000000002</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5023.8130000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5213.1760000000004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5408.7219999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5608.3490000000002</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5843.11</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6095.652</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6378.277</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6690.4989999999998</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7048.3990000000003</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7534.607</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8064.9</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8926.5949999999993</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>10148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1101539808"/>
+        <c:axId val="1101545792"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Agglomeration Schedule'!$A$4:$A$175</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="172"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>113</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>117</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>121</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>123</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>133</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>137</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>141</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>147</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>153</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>157</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>159</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>162</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>164</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>167</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>168</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>169</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>171</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>172</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Agglomeration Schedule'!$B$4:$B$175</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="172"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>147</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Agglomeration Schedule'!$C$4:$C$175</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="172"/>
+                      <c:pt idx="0">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>159</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>162</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>137</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>133</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>172</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>113</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>168</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>121</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>167</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>164</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>147</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>117</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>141</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>171</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>169</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>123</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>157</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>153</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>173</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1101539808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1101545792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1101545792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1101539808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6191250" cy="41690925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A70:D77" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
@@ -1728,7 +4867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -4383,16 +7522,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15364,4 +18503,4029 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G175"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>82</v>
+      </c>
+      <c r="D5">
+        <v>2.3159999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>86</v>
+      </c>
+      <c r="C6">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <v>4.8769999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>122</v>
+      </c>
+      <c r="D7">
+        <v>7.6079999999999997</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>132</v>
+      </c>
+      <c r="C8">
+        <v>146</v>
+      </c>
+      <c r="D8">
+        <v>10.552</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <v>159</v>
+      </c>
+      <c r="D9">
+        <v>14.27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>21.768999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>25.780999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>29.91</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>34.203000000000003</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>119</v>
+      </c>
+      <c r="D15">
+        <v>38.621000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>94</v>
+      </c>
+      <c r="D16">
+        <v>43.055</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>107</v>
+      </c>
+      <c r="D17">
+        <v>47.716999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>147</v>
+      </c>
+      <c r="C18">
+        <v>149</v>
+      </c>
+      <c r="D18">
+        <v>52.890999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>158</v>
+      </c>
+      <c r="D19">
+        <v>58.591999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>128</v>
+      </c>
+      <c r="D20">
+        <v>64.335999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>66</v>
+      </c>
+      <c r="C21">
+        <v>162</v>
+      </c>
+      <c r="D21">
+        <v>70.135000000000005</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>75.956999999999994</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>137</v>
+      </c>
+      <c r="D23">
+        <v>81.896000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>93</v>
+      </c>
+      <c r="C24">
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <v>88.227999999999994</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>95</v>
+      </c>
+      <c r="C25">
+        <v>133</v>
+      </c>
+      <c r="D25">
+        <v>94.840999999999994</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>101.494</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>118</v>
+      </c>
+      <c r="C27">
+        <v>135</v>
+      </c>
+      <c r="D27">
+        <v>108.283</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>115.07299999999999</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>104</v>
+      </c>
+      <c r="D29">
+        <v>122.261</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>143</v>
+      </c>
+      <c r="C30">
+        <v>172</v>
+      </c>
+      <c r="D30">
+        <v>129.68199999999999</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>124</v>
+      </c>
+      <c r="D31">
+        <v>137.33600000000001</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>145.208</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>153.09</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>85</v>
+      </c>
+      <c r="C34">
+        <v>165</v>
+      </c>
+      <c r="D34">
+        <v>161.43199999999999</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>169.78200000000001</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>59</v>
+      </c>
+      <c r="C36">
+        <v>113</v>
+      </c>
+      <c r="D36">
+        <v>178.46799999999999</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>63</v>
+      </c>
+      <c r="C37">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>187.22499999999999</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>81</v>
+      </c>
+      <c r="C38">
+        <v>168</v>
+      </c>
+      <c r="D38">
+        <v>196.00899999999999</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>138</v>
+      </c>
+      <c r="D39">
+        <v>204.857</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>121</v>
+      </c>
+      <c r="D40">
+        <v>213.92400000000001</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>96</v>
+      </c>
+      <c r="D41">
+        <v>223.13800000000001</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>232.45099999999999</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>83</v>
+      </c>
+      <c r="C43">
+        <v>167</v>
+      </c>
+      <c r="D43">
+        <v>241.86600000000001</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>161</v>
+      </c>
+      <c r="C44">
+        <v>164</v>
+      </c>
+      <c r="D44">
+        <v>251.33</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>147</v>
+      </c>
+      <c r="D45">
+        <v>260.81200000000001</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <v>270.94200000000001</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>117</v>
+      </c>
+      <c r="D47">
+        <v>281.15300000000002</v>
+      </c>
+      <c r="E47">
+        <v>36</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>99</v>
+      </c>
+      <c r="D48">
+        <v>291.51900000000001</v>
+      </c>
+      <c r="E48">
+        <v>39</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>301.983</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>106</v>
+      </c>
+      <c r="D50">
+        <v>312.51</v>
+      </c>
+      <c r="E50">
+        <v>25</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>105</v>
+      </c>
+      <c r="D51">
+        <v>323.03800000000001</v>
+      </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>35</v>
+      </c>
+      <c r="C52">
+        <v>110</v>
+      </c>
+      <c r="D52">
+        <v>333.64</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>102</v>
+      </c>
+      <c r="D53">
+        <v>344.416</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>141</v>
+      </c>
+      <c r="D54">
+        <v>355.90499999999997</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>91</v>
+      </c>
+      <c r="C55">
+        <v>92</v>
+      </c>
+      <c r="D55">
+        <v>367.46699999999998</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>379.14100000000002</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>108</v>
+      </c>
+      <c r="C57">
+        <v>130</v>
+      </c>
+      <c r="D57">
+        <v>391.11</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>145</v>
+      </c>
+      <c r="D58">
+        <v>403.46899999999999</v>
+      </c>
+      <c r="E58">
+        <v>38</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>51</v>
+      </c>
+      <c r="C59">
+        <v>103</v>
+      </c>
+      <c r="D59">
+        <v>416.02600000000001</v>
+      </c>
+      <c r="E59">
+        <v>28</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>101</v>
+      </c>
+      <c r="D60">
+        <v>428.72500000000002</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>81</v>
+      </c>
+      <c r="C61">
+        <v>91</v>
+      </c>
+      <c r="D61">
+        <v>441.62200000000001</v>
+      </c>
+      <c r="E61">
+        <v>35</v>
+      </c>
+      <c r="F61">
+        <v>52</v>
+      </c>
+      <c r="G61">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>454.69400000000002</v>
+      </c>
+      <c r="E62">
+        <v>23</v>
+      </c>
+      <c r="F62">
+        <v>48</v>
+      </c>
+      <c r="G62">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>134</v>
+      </c>
+      <c r="C63">
+        <v>139</v>
+      </c>
+      <c r="D63">
+        <v>467.952</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>39</v>
+      </c>
+      <c r="C64">
+        <v>72</v>
+      </c>
+      <c r="D64">
+        <v>481.31700000000001</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>73</v>
+      </c>
+      <c r="C65">
+        <v>77</v>
+      </c>
+      <c r="D65">
+        <v>494.73399999999998</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>109</v>
+      </c>
+      <c r="D66">
+        <v>508.52699999999999</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>63</v>
+      </c>
+      <c r="D67">
+        <v>522.59</v>
+      </c>
+      <c r="E67">
+        <v>26</v>
+      </c>
+      <c r="F67">
+        <v>34</v>
+      </c>
+      <c r="G67">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>118</v>
+      </c>
+      <c r="C68">
+        <v>126</v>
+      </c>
+      <c r="D68">
+        <v>536.98500000000001</v>
+      </c>
+      <c r="E68">
+        <v>24</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>31</v>
+      </c>
+      <c r="C69">
+        <v>93</v>
+      </c>
+      <c r="D69">
+        <v>551.40099999999995</v>
+      </c>
+      <c r="E69">
+        <v>17</v>
+      </c>
+      <c r="F69">
+        <v>21</v>
+      </c>
+      <c r="G69">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>111</v>
+      </c>
+      <c r="D70">
+        <v>566.34500000000003</v>
+      </c>
+      <c r="E70">
+        <v>45</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>48</v>
+      </c>
+      <c r="D71">
+        <v>581.32000000000005</v>
+      </c>
+      <c r="E71">
+        <v>19</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+      <c r="G71">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>47</v>
+      </c>
+      <c r="C72">
+        <v>171</v>
+      </c>
+      <c r="D72">
+        <v>596.97</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>108</v>
+      </c>
+      <c r="C73">
+        <v>127</v>
+      </c>
+      <c r="D73">
+        <v>612.75800000000004</v>
+      </c>
+      <c r="E73">
+        <v>54</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>144</v>
+      </c>
+      <c r="C74">
+        <v>169</v>
+      </c>
+      <c r="D74">
+        <v>628.62400000000002</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>148</v>
+      </c>
+      <c r="C75">
+        <v>152</v>
+      </c>
+      <c r="D75">
+        <v>644.91200000000003</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>129</v>
+      </c>
+      <c r="D76">
+        <v>661.50199999999995</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>49</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <v>678.17600000000004</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>31</v>
+      </c>
+      <c r="C78">
+        <v>33</v>
+      </c>
+      <c r="D78">
+        <v>695.149</v>
+      </c>
+      <c r="E78">
+        <v>66</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>57</v>
+      </c>
+      <c r="C79">
+        <v>142</v>
+      </c>
+      <c r="D79">
+        <v>712.97900000000004</v>
+      </c>
+      <c r="E79">
+        <v>57</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>22</v>
+      </c>
+      <c r="C80">
+        <v>53</v>
+      </c>
+      <c r="D80">
+        <v>731.149</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>46</v>
+      </c>
+      <c r="G80">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>112</v>
+      </c>
+      <c r="C81">
+        <v>161</v>
+      </c>
+      <c r="D81">
+        <v>749.46299999999997</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>41</v>
+      </c>
+      <c r="G81">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>131</v>
+      </c>
+      <c r="D82">
+        <v>767.95699999999999</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>61</v>
+      </c>
+      <c r="C83">
+        <v>79</v>
+      </c>
+      <c r="D83">
+        <v>786.96799999999996</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>85</v>
+      </c>
+      <c r="D84">
+        <v>806.45500000000004</v>
+      </c>
+      <c r="E84">
+        <v>53</v>
+      </c>
+      <c r="F84">
+        <v>31</v>
+      </c>
+      <c r="G84">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>42</v>
+      </c>
+      <c r="D85">
+        <v>826.03</v>
+      </c>
+      <c r="E85">
+        <v>64</v>
+      </c>
+      <c r="F85">
+        <v>12</v>
+      </c>
+      <c r="G85">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>43</v>
+      </c>
+      <c r="D86">
+        <v>845.976</v>
+      </c>
+      <c r="E86">
+        <v>44</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>83</v>
+      </c>
+      <c r="D87">
+        <v>866.39400000000001</v>
+      </c>
+      <c r="E87">
+        <v>42</v>
+      </c>
+      <c r="F87">
+        <v>40</v>
+      </c>
+      <c r="G87">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>39</v>
+      </c>
+      <c r="C88">
+        <v>69</v>
+      </c>
+      <c r="D88">
+        <v>886.84699999999998</v>
+      </c>
+      <c r="E88">
+        <v>61</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>144</v>
+      </c>
+      <c r="D89">
+        <v>907.34</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>71</v>
+      </c>
+      <c r="G89">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>108</v>
+      </c>
+      <c r="C90">
+        <v>136</v>
+      </c>
+      <c r="D90">
+        <v>928.72</v>
+      </c>
+      <c r="E90">
+        <v>70</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>52</v>
+      </c>
+      <c r="C91">
+        <v>140</v>
+      </c>
+      <c r="D91">
+        <v>950.11800000000005</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>55</v>
+      </c>
+      <c r="C92">
+        <v>160</v>
+      </c>
+      <c r="D92">
+        <v>972.54100000000005</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>50</v>
+      </c>
+      <c r="C93">
+        <v>73</v>
+      </c>
+      <c r="D93">
+        <v>995.15</v>
+      </c>
+      <c r="E93">
+        <v>37</v>
+      </c>
+      <c r="F93">
+        <v>62</v>
+      </c>
+      <c r="G93">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <v>1018.289</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>56</v>
+      </c>
+      <c r="D95">
+        <v>1041.4570000000001</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>60</v>
+      </c>
+      <c r="D96">
+        <v>1064.876</v>
+      </c>
+      <c r="E96">
+        <v>32</v>
+      </c>
+      <c r="F96">
+        <v>47</v>
+      </c>
+      <c r="G96">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <v>116</v>
+      </c>
+      <c r="D97">
+        <v>1088.4490000000001</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>88</v>
+      </c>
+      <c r="D98">
+        <v>1113.3140000000001</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>62</v>
+      </c>
+      <c r="D99">
+        <v>1138.193</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <v>97</v>
+      </c>
+      <c r="C100">
+        <v>125</v>
+      </c>
+      <c r="D100">
+        <v>1164.1199999999999</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101">
+        <v>64</v>
+      </c>
+      <c r="C101">
+        <v>148</v>
+      </c>
+      <c r="D101">
+        <v>1190.0840000000001</v>
+      </c>
+      <c r="E101">
+        <v>55</v>
+      </c>
+      <c r="F101">
+        <v>72</v>
+      </c>
+      <c r="G101">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>132</v>
+      </c>
+      <c r="D102">
+        <v>1216.0920000000001</v>
+      </c>
+      <c r="E102">
+        <v>59</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>155</v>
+      </c>
+      <c r="D103">
+        <v>1242.444</v>
+      </c>
+      <c r="E103">
+        <v>67</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>59</v>
+      </c>
+      <c r="C104">
+        <v>143</v>
+      </c>
+      <c r="D104">
+        <v>1269.0709999999999</v>
+      </c>
+      <c r="E104">
+        <v>33</v>
+      </c>
+      <c r="F104">
+        <v>27</v>
+      </c>
+      <c r="G104">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <v>21</v>
+      </c>
+      <c r="C105">
+        <v>40</v>
+      </c>
+      <c r="D105">
+        <v>1295.8399999999999</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>49</v>
+      </c>
+      <c r="D106">
+        <v>1322.7829999999999</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>74</v>
+      </c>
+      <c r="G106">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107">
+        <v>118</v>
+      </c>
+      <c r="C107">
+        <v>166</v>
+      </c>
+      <c r="D107">
+        <v>1351.886</v>
+      </c>
+      <c r="E107">
+        <v>65</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>151</v>
+      </c>
+      <c r="D108">
+        <v>1381.5350000000001</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>13</v>
+      </c>
+      <c r="C109">
+        <v>35</v>
+      </c>
+      <c r="D109">
+        <v>1411.597</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>49</v>
+      </c>
+      <c r="G109">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>115</v>
+      </c>
+      <c r="D110">
+        <v>1442.4290000000001</v>
+      </c>
+      <c r="E110">
+        <v>94</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>57</v>
+      </c>
+      <c r="C111">
+        <v>154</v>
+      </c>
+      <c r="D111">
+        <v>1473.412</v>
+      </c>
+      <c r="E111">
+        <v>76</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>27</v>
+      </c>
+      <c r="C112">
+        <v>87</v>
+      </c>
+      <c r="D112">
+        <v>1504.7809999999999</v>
+      </c>
+      <c r="E112">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>65</v>
+      </c>
+      <c r="C113">
+        <v>156</v>
+      </c>
+      <c r="D113">
+        <v>1536.9880000000001</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>31</v>
+      </c>
+      <c r="C114">
+        <v>46</v>
+      </c>
+      <c r="D114">
+        <v>1569.546</v>
+      </c>
+      <c r="E114">
+        <v>75</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>50</v>
+      </c>
+      <c r="D115">
+        <v>1603.7860000000001</v>
+      </c>
+      <c r="E115">
+        <v>81</v>
+      </c>
+      <c r="F115">
+        <v>90</v>
+      </c>
+      <c r="G115">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>120</v>
+      </c>
+      <c r="C116">
+        <v>134</v>
+      </c>
+      <c r="D116">
+        <v>1638.0630000000001</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>60</v>
+      </c>
+      <c r="G116">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>108</v>
+      </c>
+      <c r="D117">
+        <v>1673.4590000000001</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>87</v>
+      </c>
+      <c r="G117">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>51</v>
+      </c>
+      <c r="D118">
+        <v>1709.893</v>
+      </c>
+      <c r="E118">
+        <v>93</v>
+      </c>
+      <c r="F118">
+        <v>56</v>
+      </c>
+      <c r="G118">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>123</v>
+      </c>
+      <c r="D119">
+        <v>1748.652</v>
+      </c>
+      <c r="E119">
+        <v>91</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120">
+        <v>30</v>
+      </c>
+      <c r="C120">
+        <v>170</v>
+      </c>
+      <c r="D120">
+        <v>1787.422</v>
+      </c>
+      <c r="E120">
+        <v>103</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>59</v>
+      </c>
+      <c r="C121">
+        <v>98</v>
+      </c>
+      <c r="D121">
+        <v>1826.8119999999999</v>
+      </c>
+      <c r="E121">
+        <v>101</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <v>17</v>
+      </c>
+      <c r="C122">
+        <v>81</v>
+      </c>
+      <c r="D122">
+        <v>1866.56</v>
+      </c>
+      <c r="E122">
+        <v>86</v>
+      </c>
+      <c r="F122">
+        <v>58</v>
+      </c>
+      <c r="G122">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123">
+        <v>38</v>
+      </c>
+      <c r="C123">
+        <v>52</v>
+      </c>
+      <c r="D123">
+        <v>1906.492</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>88</v>
+      </c>
+      <c r="G123">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>31</v>
+      </c>
+      <c r="C124">
+        <v>71</v>
+      </c>
+      <c r="D124">
+        <v>1946.578</v>
+      </c>
+      <c r="E124">
+        <v>111</v>
+      </c>
+      <c r="F124">
+        <v>43</v>
+      </c>
+      <c r="G124">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>1987.058</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>105</v>
+      </c>
+      <c r="G125">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <v>23</v>
+      </c>
+      <c r="C126">
+        <v>157</v>
+      </c>
+      <c r="D126">
+        <v>2028.829</v>
+      </c>
+      <c r="E126">
+        <v>107</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>18</v>
+      </c>
+      <c r="D127">
+        <v>2071.0169999999998</v>
+      </c>
+      <c r="E127">
+        <v>116</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>2113.9380000000001</v>
+      </c>
+      <c r="E128">
+        <v>68</v>
+      </c>
+      <c r="F128">
+        <v>115</v>
+      </c>
+      <c r="G128">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129">
+        <v>47</v>
+      </c>
+      <c r="C129">
+        <v>75</v>
+      </c>
+      <c r="D129">
+        <v>2158.6999999999998</v>
+      </c>
+      <c r="E129">
+        <v>69</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>13</v>
+      </c>
+      <c r="D130">
+        <v>2205.3359999999998</v>
+      </c>
+      <c r="E130">
+        <v>83</v>
+      </c>
+      <c r="F130">
+        <v>106</v>
+      </c>
+      <c r="G130">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131">
+        <v>21</v>
+      </c>
+      <c r="C131">
+        <v>74</v>
+      </c>
+      <c r="D131">
+        <v>2252.752</v>
+      </c>
+      <c r="E131">
+        <v>102</v>
+      </c>
+      <c r="F131">
+        <v>73</v>
+      </c>
+      <c r="G131">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <v>90</v>
+      </c>
+      <c r="C132">
+        <v>150</v>
+      </c>
+      <c r="D132">
+        <v>2301.038</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>54</v>
+      </c>
+      <c r="D133">
+        <v>2349.3890000000001</v>
+      </c>
+      <c r="E133">
+        <v>114</v>
+      </c>
+      <c r="F133">
+        <v>16</v>
+      </c>
+      <c r="G133">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <v>41</v>
+      </c>
+      <c r="C134">
+        <v>153</v>
+      </c>
+      <c r="D134">
+        <v>2401.6529999999998</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>67</v>
+      </c>
+      <c r="D135">
+        <v>2457.1970000000001</v>
+      </c>
+      <c r="E135">
+        <v>122</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <v>20</v>
+      </c>
+      <c r="C136">
+        <v>31</v>
+      </c>
+      <c r="D136">
+        <v>2513.402</v>
+      </c>
+      <c r="E136">
+        <v>79</v>
+      </c>
+      <c r="F136">
+        <v>121</v>
+      </c>
+      <c r="G136">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <v>64</v>
+      </c>
+      <c r="C137">
+        <v>90</v>
+      </c>
+      <c r="D137">
+        <v>2570.4569999999999</v>
+      </c>
+      <c r="E137">
+        <v>98</v>
+      </c>
+      <c r="F137">
+        <v>129</v>
+      </c>
+      <c r="G137">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138">
+        <v>12</v>
+      </c>
+      <c r="C138">
+        <v>39</v>
+      </c>
+      <c r="D138">
+        <v>2627.8339999999998</v>
+      </c>
+      <c r="E138">
+        <v>92</v>
+      </c>
+      <c r="F138">
+        <v>85</v>
+      </c>
+      <c r="G138">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139">
+        <v>22</v>
+      </c>
+      <c r="C139">
+        <v>38</v>
+      </c>
+      <c r="D139">
+        <v>2688.232</v>
+      </c>
+      <c r="E139">
+        <v>77</v>
+      </c>
+      <c r="F139">
+        <v>120</v>
+      </c>
+      <c r="G139">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140">
+        <v>10</v>
+      </c>
+      <c r="C140">
+        <v>24</v>
+      </c>
+      <c r="D140">
+        <v>2749.0659999999998</v>
+      </c>
+      <c r="E140">
+        <v>82</v>
+      </c>
+      <c r="F140">
+        <v>84</v>
+      </c>
+      <c r="G140">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>173</v>
+      </c>
+      <c r="D141">
+        <v>2813.3240000000001</v>
+      </c>
+      <c r="E141">
+        <v>124</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <v>112</v>
+      </c>
+      <c r="C142">
+        <v>120</v>
+      </c>
+      <c r="D142">
+        <v>2878.0259999999998</v>
+      </c>
+      <c r="E142">
+        <v>78</v>
+      </c>
+      <c r="F142">
+        <v>113</v>
+      </c>
+      <c r="G142">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143">
+        <v>23</v>
+      </c>
+      <c r="C143">
+        <v>97</v>
+      </c>
+      <c r="D143">
+        <v>2945.9340000000002</v>
+      </c>
+      <c r="E143">
+        <v>123</v>
+      </c>
+      <c r="F143">
+        <v>97</v>
+      </c>
+      <c r="G143">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>118</v>
+      </c>
+      <c r="D144">
+        <v>3014.192</v>
+      </c>
+      <c r="E144">
+        <v>125</v>
+      </c>
+      <c r="F144">
+        <v>104</v>
+      </c>
+      <c r="G144">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>30</v>
+      </c>
+      <c r="D145">
+        <v>3084.9470000000001</v>
+      </c>
+      <c r="E145">
+        <v>130</v>
+      </c>
+      <c r="F145">
+        <v>117</v>
+      </c>
+      <c r="G145">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>22</v>
+      </c>
+      <c r="D146">
+        <v>3156.4450000000002</v>
+      </c>
+      <c r="E146">
+        <v>100</v>
+      </c>
+      <c r="F146">
+        <v>136</v>
+      </c>
+      <c r="G146">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>15</v>
+      </c>
+      <c r="D147">
+        <v>3236.2240000000002</v>
+      </c>
+      <c r="E147">
+        <v>63</v>
+      </c>
+      <c r="F147">
+        <v>95</v>
+      </c>
+      <c r="G147">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>47</v>
+      </c>
+      <c r="D148">
+        <v>3317.0610000000001</v>
+      </c>
+      <c r="E148">
+        <v>132</v>
+      </c>
+      <c r="F148">
+        <v>126</v>
+      </c>
+      <c r="G148">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <v>11</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>3401.4960000000001</v>
+      </c>
+      <c r="E149">
+        <v>99</v>
+      </c>
+      <c r="F149">
+        <v>135</v>
+      </c>
+      <c r="G149">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>59</v>
+      </c>
+      <c r="C150">
+        <v>64</v>
+      </c>
+      <c r="D150">
+        <v>3487.6329999999998</v>
+      </c>
+      <c r="E150">
+        <v>118</v>
+      </c>
+      <c r="F150">
+        <v>134</v>
+      </c>
+      <c r="G150">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151">
+        <v>20</v>
+      </c>
+      <c r="C151">
+        <v>80</v>
+      </c>
+      <c r="D151">
+        <v>3574.0909999999999</v>
+      </c>
+      <c r="E151">
+        <v>133</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152">
+        <v>21</v>
+      </c>
+      <c r="C152">
+        <v>37</v>
+      </c>
+      <c r="D152">
+        <v>3662.442</v>
+      </c>
+      <c r="E152">
+        <v>128</v>
+      </c>
+      <c r="F152">
+        <v>51</v>
+      </c>
+      <c r="G152">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153">
+        <v>17</v>
+      </c>
+      <c r="C153">
+        <v>41</v>
+      </c>
+      <c r="D153">
+        <v>3757.5940000000001</v>
+      </c>
+      <c r="E153">
+        <v>119</v>
+      </c>
+      <c r="F153">
+        <v>131</v>
+      </c>
+      <c r="G153">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <v>11</v>
+      </c>
+      <c r="C154">
+        <v>16</v>
+      </c>
+      <c r="D154">
+        <v>3853.2170000000001</v>
+      </c>
+      <c r="E154">
+        <v>146</v>
+      </c>
+      <c r="F154">
+        <v>96</v>
+      </c>
+      <c r="G154">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>55</v>
+      </c>
+      <c r="D155">
+        <v>3949.5390000000002</v>
+      </c>
+      <c r="E155">
+        <v>112</v>
+      </c>
+      <c r="F155">
+        <v>89</v>
+      </c>
+      <c r="G155">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156">
+        <v>8</v>
+      </c>
+      <c r="C156">
+        <v>61</v>
+      </c>
+      <c r="D156">
+        <v>4064.63</v>
+      </c>
+      <c r="E156">
+        <v>142</v>
+      </c>
+      <c r="F156">
+        <v>80</v>
+      </c>
+      <c r="G156">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="D157">
+        <v>4184.0550000000003</v>
+      </c>
+      <c r="E157">
+        <v>127</v>
+      </c>
+      <c r="F157">
+        <v>151</v>
+      </c>
+      <c r="G157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <v>27</v>
+      </c>
+      <c r="D158">
+        <v>4305.2060000000001</v>
+      </c>
+      <c r="E158">
+        <v>152</v>
+      </c>
+      <c r="F158">
+        <v>109</v>
+      </c>
+      <c r="G158">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>163</v>
+      </c>
+      <c r="D159">
+        <v>4430.1570000000002</v>
+      </c>
+      <c r="E159">
+        <v>154</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <v>21</v>
+      </c>
+      <c r="C160">
+        <v>23</v>
+      </c>
+      <c r="D160">
+        <v>4556.2139999999999</v>
+      </c>
+      <c r="E160">
+        <v>149</v>
+      </c>
+      <c r="F160">
+        <v>140</v>
+      </c>
+      <c r="G160">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>59</v>
+      </c>
+      <c r="D161">
+        <v>4694.75</v>
+      </c>
+      <c r="E161">
+        <v>137</v>
+      </c>
+      <c r="F161">
+        <v>147</v>
+      </c>
+      <c r="G161">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>57</v>
+      </c>
+      <c r="D162">
+        <v>4858.4430000000002</v>
+      </c>
+      <c r="E162">
+        <v>143</v>
+      </c>
+      <c r="F162">
+        <v>108</v>
+      </c>
+      <c r="G162">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>14</v>
+      </c>
+      <c r="D163">
+        <v>5023.8130000000001</v>
+      </c>
+      <c r="E163">
+        <v>155</v>
+      </c>
+      <c r="F163">
+        <v>144</v>
+      </c>
+      <c r="G163">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>10</v>
+      </c>
+      <c r="D164">
+        <v>5213.1760000000004</v>
+      </c>
+      <c r="E164">
+        <v>138</v>
+      </c>
+      <c r="F164">
+        <v>158</v>
+      </c>
+      <c r="G164">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165">
+        <v>65</v>
+      </c>
+      <c r="D165">
+        <v>5408.7219999999998</v>
+      </c>
+      <c r="E165">
+        <v>153</v>
+      </c>
+      <c r="F165">
+        <v>110</v>
+      </c>
+      <c r="G165">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166">
+        <v>20</v>
+      </c>
+      <c r="C166">
+        <v>112</v>
+      </c>
+      <c r="D166">
+        <v>5608.3490000000002</v>
+      </c>
+      <c r="E166">
+        <v>148</v>
+      </c>
+      <c r="F166">
+        <v>139</v>
+      </c>
+      <c r="G166">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>5843.11</v>
+      </c>
+      <c r="E167">
+        <v>156</v>
+      </c>
+      <c r="F167">
+        <v>161</v>
+      </c>
+      <c r="G167">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>17</v>
+      </c>
+      <c r="D168">
+        <v>6095.652</v>
+      </c>
+      <c r="E168">
+        <v>159</v>
+      </c>
+      <c r="F168">
+        <v>150</v>
+      </c>
+      <c r="G168">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>6378.277</v>
+      </c>
+      <c r="E169">
+        <v>145</v>
+      </c>
+      <c r="F169">
+        <v>162</v>
+      </c>
+      <c r="G169">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>20</v>
+      </c>
+      <c r="D170">
+        <v>6690.4989999999998</v>
+      </c>
+      <c r="E170">
+        <v>141</v>
+      </c>
+      <c r="F170">
+        <v>163</v>
+      </c>
+      <c r="G170">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>21</v>
+      </c>
+      <c r="D171">
+        <v>7048.3990000000003</v>
+      </c>
+      <c r="E171">
+        <v>160</v>
+      </c>
+      <c r="F171">
+        <v>157</v>
+      </c>
+      <c r="G171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>169</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>7</v>
+      </c>
+      <c r="D172">
+        <v>7534.607</v>
+      </c>
+      <c r="E172">
+        <v>164</v>
+      </c>
+      <c r="F172">
+        <v>168</v>
+      </c>
+      <c r="G172">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>170</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173">
+        <v>8064.9</v>
+      </c>
+      <c r="E173">
+        <v>167</v>
+      </c>
+      <c r="F173">
+        <v>166</v>
+      </c>
+      <c r="G173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>171</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+      <c r="D174">
+        <v>8926.5949999999993</v>
+      </c>
+      <c r="E174">
+        <v>165</v>
+      </c>
+      <c r="F174">
+        <v>170</v>
+      </c>
+      <c r="G174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>172</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>10148</v>
+      </c>
+      <c r="E175">
+        <v>169</v>
+      </c>
+      <c r="F175">
+        <v>171</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>